--- a/数据表数据/4_T_SURR_ACT_SUM.xlsx
+++ b/数据表数据/4_T_SURR_ACT_SUM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="7290" windowWidth="26490" windowHeight="4620"/>
+    <workbookView xWindow="-36" yWindow="7296" windowWidth="26496" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="表定义" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>英文字段名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -290,14 +290,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>经度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纬度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>活动等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -326,10 +318,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>编码规则：活动类型（1位）+日期（首次发现活动的日期）8位+序号（2位）</t>
   </si>
   <si>
@@ -342,10 +330,6 @@
   </si>
   <si>
     <t>T_SURR_ACT_SUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(9,6)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -365,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,23 +427,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -506,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -548,15 +515,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -901,45 +859,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77" style="6" customWidth="1"/>
     <col min="9" max="13" width="9" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="6"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -989,7 +947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1008,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1033,7 +991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -1053,7 +1011,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -1073,9 +1031,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>55</v>
@@ -1092,13 +1050,13 @@
         <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -1118,7 +1076,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
@@ -1138,15 +1096,15 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
@@ -1154,126 +1112,115 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1281,53 +1228,21 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1344,30 +1259,30 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -1393,13 +1308,13 @@
         <v>73</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>70</v>
